--- a/Final Memo/Pin Allocation.xlsx
+++ b/Final Memo/Pin Allocation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reesv\Documents\School Stuff\Spring 2023\ME 507\ME-507-Project\Electronics Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reesv\Documents\School Stuff\Spring 2023\ME 507\ME-507-Project\Final Memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D336B3-F9FD-400A-9772-DFB350AAF05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1438B798-78BB-4969-AC10-48F1CAAD2335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E759203-0FFF-4E4C-B3F2-2269A4B4B79A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>PA0</t>
   </si>
@@ -305,10 +305,7 @@
     <t>HALL</t>
   </si>
   <si>
-    <t>MOVED?</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -336,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -447,11 +444,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -460,18 +477,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -496,35 +508,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -838,10 +822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3E500-178F-4B06-81CE-CF1E72C50233}">
-  <dimension ref="A1:AJ31"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection sqref="A1:AI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +838,7 @@
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -952,11 +939,11 @@
       <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AI1" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1063,11 +1050,8 @@
         <f>33-COUNT(B2:AH2)</f>
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1174,11 +1158,8 @@
         <f t="shared" ref="AI3:AI30" si="0">33-COUNT(B3:AH3)</f>
         <v>1</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -1285,11 +1266,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -1396,11 +1374,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1507,11 +1482,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1618,11 +1590,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1729,11 +1698,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1840,11 +1806,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -1951,11 +1914,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -2062,11 +2022,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -2173,11 +2130,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -2284,11 +2238,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -2395,11 +2346,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -2506,11 +2454,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -2617,11 +2562,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
@@ -2728,11 +2670,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -2839,11 +2778,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
@@ -2950,11 +2886,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -3061,11 +2994,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -3172,11 +3102,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -3283,11 +3210,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -3394,11 +3318,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -3505,11 +3426,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
@@ -3616,11 +3534,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
@@ -3727,11 +3642,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -3838,11 +3750,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ27" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -3949,11 +3858,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ28" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -4060,11 +3966,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ29" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>60</v>
       </c>
@@ -4171,17 +4074,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AJ30" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="B31">
         <f>29-COUNT(B2:B30)</f>
         <v>1</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:AI31" si="1">29-COUNT(C2:C30)</f>
+        <f t="shared" ref="C31:AH31" si="1">29-COUNT(C2:C30)</f>
         <v>1</v>
       </c>
       <c r="D31">
@@ -4311,24 +4214,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:AI30">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$AI2=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$AI2=1</formula>
+  <conditionalFormatting sqref="AJ2:AJ30 A2:A31">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$AJ2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AH31">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B$31&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A30 AJ2:AJ30">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$AJ2=1</formula>
+  <conditionalFormatting sqref="B2:AI30">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$AI2=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$AI2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>